--- a/bookInfo.xlsx
+++ b/bookInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>书号</t>
   </si>
@@ -27,6 +27,102 @@
   </si>
   <si>
     <t>库存量</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>计算机组成原理（第六版）</t>
+  </si>
+  <si>
+    <t>白中英</t>
+  </si>
+  <si>
+    <t>计算机组成原理试题解析（第六版）</t>
+  </si>
+  <si>
+    <t>电子技术基础（模拟部分）（第六版）</t>
+  </si>
+  <si>
+    <t>康华光</t>
+  </si>
+  <si>
+    <t>数据库系统概论（第五版）</t>
+  </si>
+  <si>
+    <t>王珊</t>
+  </si>
+  <si>
+    <t>需求工程-软件建模与分析（第2版）</t>
+  </si>
+  <si>
+    <t>骆斌</t>
+  </si>
+  <si>
+    <t>电路与电子技术</t>
+  </si>
+  <si>
+    <t>张继和</t>
+  </si>
+  <si>
+    <t>程序设计语言编译原理（第三版）</t>
+  </si>
+  <si>
+    <t>陈火旺</t>
+  </si>
+  <si>
+    <t>现代传感器技术-面向物联网应用（第2版）</t>
+  </si>
+  <si>
+    <t>刘少强</t>
+  </si>
+  <si>
+    <t>算法设计与分析</t>
+  </si>
+  <si>
+    <t>王晓东</t>
+  </si>
+  <si>
+    <t>数据结构（C语言版）</t>
+  </si>
+  <si>
+    <t>严蔚敏</t>
+  </si>
+  <si>
+    <t>软件工程导论（第6版）</t>
+  </si>
+  <si>
+    <t>张海藩</t>
+  </si>
+  <si>
+    <t>UML2软件建模入门与提高</t>
+  </si>
+  <si>
+    <t>李勇</t>
+  </si>
+  <si>
+    <t>大学物理（下册）</t>
+  </si>
+  <si>
+    <t>王兵</t>
+  </si>
+  <si>
+    <t>概率论与数理统计</t>
+  </si>
+  <si>
+    <t>安徽理工大学数学系</t>
+  </si>
+  <si>
+    <t>电工电子技术实验</t>
+  </si>
+  <si>
+    <t>杨茂宇</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>张三</t>
   </si>
 </sst>
 </file>
@@ -72,7 +168,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -102,6 +198,278 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="1">
+        <v>9.787030619716E12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="1">
+        <v>9.787030640017E12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="1">
+        <v>9.787040384802E12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="1">
+        <v>9.787040406641E12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="1">
+        <v>9.787040417142E12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="1">
+        <v>9.787040446531E12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="1">
+        <v>9.78711802207E12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="1">
+        <v>9.787121298752E12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="1">
+        <v>9.787121344398E12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="1">
+        <v>9.787302023685E12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="1">
+        <v>9.787302330981E12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="1">
+        <v>9.7873023861E12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="1">
+        <v>9.787313209092E12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="1">
+        <v>9.78755765205E12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="1">
+        <v>9.787562824657E12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="1">
+        <v>1.1111111111111E13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
